--- a/data/clean data/summary stats_no_discount.xlsx
+++ b/data/clean data/summary stats_no_discount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Class</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>sum of ALL annual revenues, years 1-20</t>
+  </si>
+  <si>
+    <t>Peak Revenue Year</t>
   </si>
   <si>
     <t>All</t>
@@ -485,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,13 +573,16 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>94</v>
@@ -650,10 +656,13 @@
       <c r="Z2">
         <v>4620248.392244809</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>424.2277763397583</v>
@@ -716,9 +725,9 @@
         <v>1168.606116204606</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>643.949024408643</v>
@@ -781,9 +790,9 @@
         <v>2892.524702683246</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -846,9 +855,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>88.70604366127024</v>
@@ -911,9 +920,9 @@
         <v>116.5933156118134</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>233.5336548834563</v>
@@ -976,9 +985,9 @@
         <v>427.9692650119454</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>498.0432116763698</v>
@@ -1041,9 +1050,9 @@
         <v>930.6760656656428</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>4046.599703789571</v>
@@ -1106,9 +1115,9 @@
         <v>23087.21686825033</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>39877.41097593728</v>
@@ -1171,12 +1180,12 @@
         <v>95825.7015287777</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>64</v>
@@ -1250,10 +1259,13 @@
       <c r="Z11">
         <v>2478669.155135332</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>404.9593882969516</v>
@@ -1316,9 +1328,9 @@
         <v>923.7954171804956</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>738.002812467189</v>
@@ -1381,9 +1393,9 @@
         <v>3166.429659944893</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1446,9 +1458,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>67.84805769990824</v>
@@ -1511,9 +1523,9 @@
         <v>84.36431281008086</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>147.3342085387489</v>
@@ -1576,9 +1588,9 @@
         <v>239.9141975626864</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:27">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>361.3793668184932</v>
@@ -1641,9 +1653,9 @@
         <v>700.2719896774823</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:27">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>4046.599703789571</v>
@@ -1706,9 +1718,9 @@
         <v>23087.21686825033</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:27">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>25917.4008510049</v>
@@ -1771,12 +1783,12 @@
         <v>49884.95252774676</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>30</v>
@@ -1850,10 +1862,13 @@
       <c r="Z20">
         <v>2141579.237109476</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>465.3336708310789</v>
@@ -1916,9 +1931,9 @@
         <v>1640.741035751106</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:27">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>379.5213177690707</v>
@@ -1981,9 +1996,9 @@
         <v>2251.189808283105</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:27">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>1.619126594630137</v>
@@ -2046,9 +2061,9 @@
         <v>54.18536853311326</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:27">
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>256.607552452911</v>
@@ -2111,9 +2126,9 @@
         <v>595.5105273003662</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:27">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>392.7753447226028</v>
@@ -2176,9 +2191,9 @@
         <v>799.8111454365405</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:27">
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>596.9847507333625</v>
@@ -2241,9 +2256,9 @@
         <v>1339.613898134357</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:27">
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>1746.270960449934</v>
@@ -2306,9 +2321,9 @@
         <v>10035.6164702808</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:27">
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>13960.01012493237</v>

--- a/data/clean data/summary stats_no_discount.xlsx
+++ b/data/clean data/summary stats_no_discount.xlsx
@@ -645,19 +645,19 @@
         <v>82</v>
       </c>
       <c r="W2">
-        <v>1883439.20198561</v>
+        <v>1996149.546955048</v>
       </c>
       <c r="X2">
-        <v>1055499.50054369</v>
+        <v>1108631.605949385</v>
       </c>
       <c r="Y2">
-        <v>1015148.490304934</v>
+        <v>1058001.581885078</v>
       </c>
       <c r="Z2">
-        <v>4620248.392244809</v>
+        <v>4862817.499981272</v>
       </c>
       <c r="AA2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -665,64 +665,64 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>424.2277763397583</v>
+        <v>443.4337744319761</v>
       </c>
       <c r="D3">
-        <v>939.7065885847924</v>
+        <v>992.3098196589998</v>
       </c>
       <c r="E3">
-        <v>1457.9507754473</v>
+        <v>1548.390269466627</v>
       </c>
       <c r="F3">
-        <v>1948.745534387785</v>
+        <v>2071.344532879983</v>
       </c>
       <c r="G3">
-        <v>2415.683833443105</v>
+        <v>2563.016132837649</v>
       </c>
       <c r="H3">
-        <v>2792.126185600205</v>
+        <v>2977.947915424741</v>
       </c>
       <c r="I3">
-        <v>3111.52047264391</v>
+        <v>3302.243152862685</v>
       </c>
       <c r="J3">
-        <v>3376.32694885063</v>
+        <v>3571.319542602826</v>
       </c>
       <c r="K3">
-        <v>3570.299139868576</v>
+        <v>3765.628338079706</v>
       </c>
       <c r="L3">
-        <v>3709.702793159159</v>
+        <v>3911.226733531185</v>
       </c>
       <c r="M3">
-        <v>3786.618998215883</v>
+        <v>3982.631803269137</v>
       </c>
       <c r="N3">
-        <v>3788.582914228207</v>
+        <v>3969.9755037979</v>
       </c>
       <c r="O3">
-        <v>3653.516178446224</v>
+        <v>3841.345947713651</v>
       </c>
       <c r="P3">
-        <v>3377.11847716611</v>
+        <v>3535.951619572644</v>
       </c>
       <c r="Q3">
-        <v>2911.619156614749</v>
+        <v>3043.985911240334</v>
       </c>
       <c r="R3">
-        <v>2319.788633260946</v>
+        <v>2433.410172915225</v>
       </c>
       <c r="S3">
-        <v>1861.894343215305</v>
+        <v>1943.846204150368</v>
       </c>
       <c r="T3">
-        <v>1591.4380682683</v>
+        <v>1649.633312109081</v>
       </c>
       <c r="U3">
-        <v>1359.519064342087</v>
+        <v>1392.930944755824</v>
       </c>
       <c r="V3">
-        <v>1168.606116204606</v>
+        <v>1220.950060892732</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -730,64 +730,64 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>643.949024408643</v>
+        <v>636.788306531413</v>
       </c>
       <c r="D4">
-        <v>1196.674833648135</v>
+        <v>1170.526565033157</v>
       </c>
       <c r="E4">
-        <v>1677.47870426441</v>
+        <v>1625.308215375082</v>
       </c>
       <c r="F4">
-        <v>2140.813133297464</v>
+        <v>2059.637909491068</v>
       </c>
       <c r="G4">
-        <v>2689.350547250475</v>
+        <v>2592.989439652436</v>
       </c>
       <c r="H4">
-        <v>3200.663896434236</v>
+        <v>3094.222919373974</v>
       </c>
       <c r="I4">
-        <v>3577.687845162907</v>
+        <v>3464.923049336555</v>
       </c>
       <c r="J4">
-        <v>3870.665315228729</v>
+        <v>3742.25811932146</v>
       </c>
       <c r="K4">
-        <v>4138.169636363222</v>
+        <v>4000.743106030297</v>
       </c>
       <c r="L4">
-        <v>4394.679317414293</v>
+        <v>4258.82785435523</v>
       </c>
       <c r="M4">
-        <v>4573.665160479205</v>
+        <v>4437.137495445838</v>
       </c>
       <c r="N4">
-        <v>4687.552709964365</v>
+        <v>4560.355587350393</v>
       </c>
       <c r="O4">
-        <v>4735.279472402629</v>
+        <v>4628.836078376211</v>
       </c>
       <c r="P4">
-        <v>4632.79946172481</v>
+        <v>4556.250269731637</v>
       </c>
       <c r="Q4">
-        <v>4026.164371544127</v>
+        <v>3972.748322694359</v>
       </c>
       <c r="R4">
-        <v>3236.318349032365</v>
+        <v>3207.370502694736</v>
       </c>
       <c r="S4">
-        <v>3000.697804281119</v>
+        <v>2977.523708543996</v>
       </c>
       <c r="T4">
-        <v>2939.154473390412</v>
+        <v>2913.638492641259</v>
       </c>
       <c r="U4">
-        <v>2892.990223605637</v>
+        <v>2842.865429237581</v>
       </c>
       <c r="V4">
-        <v>2892.524702683246</v>
+        <v>2886.33867638636</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -798,43 +798,43 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5958815959254794</v>
+        <v>31.83964114520548</v>
       </c>
       <c r="E5">
-        <v>2.104112022465753</v>
+        <v>48.78947191232876</v>
       </c>
       <c r="F5">
-        <v>2.926953712191781</v>
+        <v>161.7349725479452</v>
       </c>
       <c r="G5">
-        <v>4.425110636506849</v>
+        <v>262.2095079452055</v>
       </c>
       <c r="H5">
-        <v>4.843085655471288</v>
+        <v>290.3671646246575</v>
       </c>
       <c r="I5">
-        <v>2.663507764917096</v>
+        <v>223.8726994483493</v>
       </c>
       <c r="J5">
-        <v>7.412338809383561</v>
+        <v>106.8164536098059</v>
       </c>
       <c r="K5">
-        <v>7.598732309895889</v>
+        <v>63.65223247008635</v>
       </c>
       <c r="L5">
-        <v>9.893252019463013</v>
+        <v>44.11650364145429</v>
       </c>
       <c r="M5">
-        <v>13.06283983642254</v>
+        <v>34.25981053309032</v>
       </c>
       <c r="N5">
-        <v>12.43501173733644</v>
+        <v>28.36799308702909</v>
       </c>
       <c r="O5">
-        <v>11.93792164439897</v>
+        <v>24.09330514822734</v>
       </c>
       <c r="P5">
-        <v>11.55997909247839</v>
+        <v>20.77925470361389</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -860,64 +860,64 @@
         <v>34</v>
       </c>
       <c r="C6">
-        <v>88.70604366127024</v>
+        <v>115.3069648691781</v>
       </c>
       <c r="D6">
-        <v>222.1266457775987</v>
+        <v>285.1942351636879</v>
       </c>
       <c r="E6">
-        <v>383.4247069178082</v>
+        <v>508.023907469863</v>
       </c>
       <c r="F6">
-        <v>558.7388800676737</v>
+        <v>731.664656369863</v>
       </c>
       <c r="G6">
-        <v>620.1424202467113</v>
+        <v>926.9122346657534</v>
       </c>
       <c r="H6">
-        <v>830.1252578395779</v>
+        <v>1115.600102865753</v>
       </c>
       <c r="I6">
-        <v>888.0915311256899</v>
+        <v>1202.202522364495</v>
       </c>
       <c r="J6">
-        <v>854.9263532450886</v>
+        <v>1239.252820002127</v>
       </c>
       <c r="K6">
-        <v>976.4648360775313</v>
+        <v>1321.368708196987</v>
       </c>
       <c r="L6">
-        <v>1010.27673142344</v>
+        <v>1349.397344390719</v>
       </c>
       <c r="M6">
-        <v>934.9585600017242</v>
+        <v>1288.464124138905</v>
       </c>
       <c r="N6">
-        <v>864.8554994053122</v>
+        <v>1192.094681267089</v>
       </c>
       <c r="O6">
-        <v>808.1903622779554</v>
+        <v>1063.692454771793</v>
       </c>
       <c r="P6">
-        <v>573.8178010705665</v>
+        <v>856.9264819498777</v>
       </c>
       <c r="Q6">
-        <v>420.5094622296793</v>
+        <v>645.2262557804556</v>
       </c>
       <c r="R6">
-        <v>347.0971636226625</v>
+        <v>444.9613283438808</v>
       </c>
       <c r="S6">
-        <v>269.4115188532712</v>
+        <v>349.9806423956519</v>
       </c>
       <c r="T6">
-        <v>188.2402761114201</v>
+        <v>270.8195324604731</v>
       </c>
       <c r="U6">
-        <v>141.3980764544737</v>
+        <v>197.664202642512</v>
       </c>
       <c r="V6">
-        <v>116.5933156118134</v>
+        <v>158.8987405272006</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -925,64 +925,64 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>233.5336548834563</v>
+        <v>236.4043760657534</v>
       </c>
       <c r="D7">
-        <v>522.833938751677</v>
+        <v>585.2631315189726</v>
       </c>
       <c r="E7">
-        <v>920.7237947470674</v>
+        <v>1018.475334969863</v>
       </c>
       <c r="F7">
-        <v>1204.232409634329</v>
+        <v>1345.696262765754</v>
       </c>
       <c r="G7">
-        <v>1425.634841228135</v>
+        <v>1631.453388394521</v>
       </c>
       <c r="H7">
-        <v>1590.361509323897</v>
+        <v>1835.664400491781</v>
       </c>
       <c r="I7">
-        <v>1823.542277538836</v>
+        <v>2087.246072523493</v>
       </c>
       <c r="J7">
-        <v>2152.049822432753</v>
+        <v>2334.551683528657</v>
       </c>
       <c r="K7">
-        <v>2099.817309344122</v>
+        <v>2381.597945542349</v>
       </c>
       <c r="L7">
-        <v>1962.870225958011</v>
+        <v>2211.244605012801</v>
       </c>
       <c r="M7">
-        <v>2046.638925486046</v>
+        <v>2250.850531845205</v>
       </c>
       <c r="N7">
-        <v>2048.256906908215</v>
+        <v>2288.653366820429</v>
       </c>
       <c r="O7">
-        <v>1832.25615564857</v>
+        <v>2210.960932354798</v>
       </c>
       <c r="P7">
-        <v>1626.522403830091</v>
+        <v>1852.973824689717</v>
       </c>
       <c r="Q7">
-        <v>1201.562826221561</v>
+        <v>1378.72277545191</v>
       </c>
       <c r="R7">
-        <v>1093.772756962407</v>
+        <v>1217.12303552571</v>
       </c>
       <c r="S7">
-        <v>801.8988931142585</v>
+        <v>882.6100382693076</v>
       </c>
       <c r="T7">
-        <v>599.3749222690888</v>
+        <v>719.9181425489987</v>
       </c>
       <c r="U7">
-        <v>526.4953875821766</v>
+        <v>559.9425273219025</v>
       </c>
       <c r="V7">
-        <v>427.9692650119454</v>
+        <v>523.5232556960223</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -990,64 +990,64 @@
         <v>36</v>
       </c>
       <c r="C8">
-        <v>498.0432116763698</v>
+        <v>535.1413347869864</v>
       </c>
       <c r="D8">
-        <v>1049.562039359046</v>
+        <v>1068.103244109589</v>
       </c>
       <c r="E8">
-        <v>2022.166768797565</v>
+        <v>2046.965134750685</v>
       </c>
       <c r="F8">
-        <v>2613.617142557322</v>
+        <v>2541.240628394589</v>
       </c>
       <c r="G8">
-        <v>3018.527419667344</v>
+        <v>3018.527383034717</v>
       </c>
       <c r="H8">
-        <v>3325.759366586999</v>
+        <v>3321.684536898159</v>
       </c>
       <c r="I8">
-        <v>3803.058018145796</v>
+        <v>3803.058948927397</v>
       </c>
       <c r="J8">
-        <v>4353.707729571386</v>
+        <v>4151.677829750312</v>
       </c>
       <c r="K8">
-        <v>4716.824407834218</v>
+        <v>4546.652047296918</v>
       </c>
       <c r="L8">
-        <v>5228.37029422971</v>
+        <v>5228.367702764446</v>
       </c>
       <c r="M8">
-        <v>5510.906857171241</v>
+        <v>5510.90870739176</v>
       </c>
       <c r="N8">
-        <v>5510.456237299853</v>
+        <v>5042.60428332868</v>
       </c>
       <c r="O8">
-        <v>4924.584416521031</v>
+        <v>4924.58512528099</v>
       </c>
       <c r="P8">
-        <v>4475.935622764081</v>
+        <v>4392.911456909813</v>
       </c>
       <c r="Q8">
-        <v>3745.121159793277</v>
+        <v>3711.451794769056</v>
       </c>
       <c r="R8">
-        <v>2665.960421252535</v>
+        <v>2766.545781213053</v>
       </c>
       <c r="S8">
-        <v>1813.9014144541</v>
+        <v>2126.88919309242</v>
       </c>
       <c r="T8">
-        <v>1434.623532584985</v>
+        <v>1590.165731410582</v>
       </c>
       <c r="U8">
-        <v>1148.089422026285</v>
+        <v>1213.400898629818</v>
       </c>
       <c r="V8">
-        <v>930.6760656656428</v>
+        <v>1036.07365942757</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1055,64 +1055,64 @@
         <v>37</v>
       </c>
       <c r="C9">
-        <v>4046.599703789571</v>
+        <v>4046.603349150685</v>
       </c>
       <c r="D9">
-        <v>5775.738256046517</v>
+        <v>5775.741792032876</v>
       </c>
       <c r="E9">
         <v>8401.4167539726</v>
       </c>
       <c r="F9">
-        <v>9466.607899582859</v>
+        <v>9466.609302720006</v>
       </c>
       <c r="G9">
-        <v>13771.11563856688</v>
+        <v>13771.11521761031</v>
       </c>
       <c r="H9">
-        <v>17311.46817179809</v>
+        <v>17311.46765559988</v>
       </c>
       <c r="I9">
-        <v>19403.82658167012</v>
+        <v>19403.82680998636</v>
       </c>
       <c r="J9">
-        <v>20812.44511907211</v>
+        <v>20812.44553450939</v>
       </c>
       <c r="K9">
-        <v>22580.87475192549</v>
+        <v>22580.87207673425</v>
       </c>
       <c r="L9">
-        <v>24617.03425131505</v>
+        <v>24617.03445717808</v>
       </c>
       <c r="M9">
-        <v>26174.71747219161</v>
+        <v>26174.7182834991</v>
       </c>
       <c r="N9">
-        <v>27331.37278738782</v>
+        <v>27331.36994931365</v>
       </c>
       <c r="O9">
-        <v>28212.35832105568</v>
+        <v>28212.35529911846</v>
       </c>
       <c r="P9">
-        <v>27651.67960088899</v>
+        <v>27651.67685801917</v>
       </c>
       <c r="Q9">
-        <v>21383.68111408081</v>
+        <v>21383.67847280407</v>
       </c>
       <c r="R9">
-        <v>18171.32534501394</v>
+        <v>18171.32496201551</v>
       </c>
       <c r="S9">
-        <v>21234.79023264697</v>
+        <v>21234.79052202661</v>
       </c>
       <c r="T9">
-        <v>21904.13582504964</v>
+        <v>21904.13672320517</v>
       </c>
       <c r="U9">
-        <v>22447.4322959671</v>
+        <v>22447.43250142318</v>
       </c>
       <c r="V9">
-        <v>23087.21686825033</v>
+        <v>23087.21760907212</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1120,64 +1120,64 @@
         <v>38</v>
       </c>
       <c r="C10">
-        <v>39877.41097593728</v>
+        <v>41682.77479660577</v>
       </c>
       <c r="D10">
-        <v>88332.41932697048</v>
+        <v>93277.12304794596</v>
       </c>
       <c r="E10">
-        <v>137047.3728920462</v>
+        <v>145548.685329863</v>
       </c>
       <c r="F10">
-        <v>183182.0802324518</v>
+        <v>194706.3860907184</v>
       </c>
       <c r="G10">
-        <v>227074.2803436519</v>
+        <v>240923.516486739</v>
       </c>
       <c r="H10">
-        <v>262459.8614464192</v>
+        <v>279927.1040499258</v>
       </c>
       <c r="I10">
-        <v>292482.9244285277</v>
+        <v>310410.8563690924</v>
       </c>
       <c r="J10">
-        <v>317374.7331919592</v>
+        <v>335704.0370046658</v>
       </c>
       <c r="K10">
-        <v>335608.1191476462</v>
+        <v>353969.0637794923</v>
       </c>
       <c r="L10">
-        <v>348712.0625569609</v>
+        <v>367655.3129519314</v>
       </c>
       <c r="M10">
-        <v>355942.1858322932</v>
+        <v>374367.3895072989</v>
       </c>
       <c r="N10">
-        <v>356126.7939374514</v>
+        <v>373177.6973570025</v>
       </c>
       <c r="O10">
-        <v>343430.5207739451</v>
+        <v>361086.5190850834</v>
       </c>
       <c r="P10">
-        <v>317449.1368536143</v>
+        <v>332379.4522398287</v>
       </c>
       <c r="Q10">
-        <v>270780.5815651717</v>
+        <v>283090.6897453509</v>
       </c>
       <c r="R10">
-        <v>215740.342893268</v>
+        <v>226307.146081116</v>
       </c>
       <c r="S10">
-        <v>171294.279575808</v>
+        <v>178833.8507818339</v>
       </c>
       <c r="T10">
-        <v>143229.4261441469</v>
+        <v>148466.9980898173</v>
       </c>
       <c r="U10">
-        <v>118278.1585977616</v>
+        <v>121184.9921937567</v>
       </c>
       <c r="V10">
-        <v>95825.7015287777</v>
+        <v>100117.904993204</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1248,16 +1248,16 @@
         <v>54</v>
       </c>
       <c r="W11">
-        <v>1090935.388558937</v>
+        <v>1190333.20608656</v>
       </c>
       <c r="X11">
-        <v>544868.5705324974</v>
+        <v>596039.2916637851</v>
       </c>
       <c r="Y11">
-        <v>498853.9758587625</v>
+        <v>535125.5449610737</v>
       </c>
       <c r="Z11">
-        <v>2478669.155135332</v>
+        <v>2697366.860817665</v>
       </c>
       <c r="AA11" t="s">
         <v>12</v>
@@ -1268,64 +1268,64 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>404.9593882969516</v>
+        <v>431.0425446230796</v>
       </c>
       <c r="D12">
-        <v>859.1927970901236</v>
+        <v>929.2567898155177</v>
       </c>
       <c r="E12">
-        <v>1306.584865229231</v>
+        <v>1418.304569207626</v>
       </c>
       <c r="F12">
-        <v>1686.752401309614</v>
+        <v>1842.160459469761</v>
       </c>
       <c r="G12">
-        <v>2083.679452389719</v>
+        <v>2272.430929165898</v>
       </c>
       <c r="H12">
-        <v>2395.422397954075</v>
+        <v>2619.619412068867</v>
       </c>
       <c r="I12">
-        <v>2629.195631147932</v>
+        <v>2863.676087776948</v>
       </c>
       <c r="J12">
-        <v>2797.474060155529</v>
+        <v>3062.849759194693</v>
       </c>
       <c r="K12">
-        <v>2882.604452660208</v>
+        <v>3159.615793780115</v>
       </c>
       <c r="L12">
-        <v>2928.722482922426</v>
+        <v>3203.964922215808</v>
       </c>
       <c r="M12">
-        <v>2929.312088099257</v>
+        <v>3204.362199556484</v>
       </c>
       <c r="N12">
-        <v>2867.577362992866</v>
+        <v>3130.96309801547</v>
       </c>
       <c r="O12">
-        <v>2716.681963478147</v>
+        <v>2977.788634674689</v>
       </c>
       <c r="P12">
-        <v>2446.452832470321</v>
+        <v>2668.985360694277</v>
       </c>
       <c r="Q12">
-        <v>2101.459074236655</v>
+        <v>2286.325987040362</v>
       </c>
       <c r="R12">
-        <v>1665.267696474848</v>
+        <v>1807.239597692553</v>
       </c>
       <c r="S12">
-        <v>1378.333297447086</v>
+        <v>1475.291615723782</v>
       </c>
       <c r="T12">
-        <v>1176.56372985655</v>
+        <v>1245.059148221685</v>
       </c>
       <c r="U12">
-        <v>958.8749748806688</v>
+        <v>1012.01022841395</v>
       </c>
       <c r="V12">
-        <v>923.7954171804956</v>
+        <v>969.6794593836186</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1333,64 +1333,64 @@
         <v>32</v>
       </c>
       <c r="C13">
-        <v>738.002812467189</v>
+        <v>732.7550172801871</v>
       </c>
       <c r="D13">
-        <v>1287.768852583867</v>
+        <v>1265.088890062892</v>
       </c>
       <c r="E13">
-        <v>1763.614603519806</v>
+        <v>1720.173591680686</v>
       </c>
       <c r="F13">
-        <v>2102.863982524443</v>
+        <v>2040.734662747424</v>
       </c>
       <c r="G13">
-        <v>2588.345574837555</v>
+        <v>2511.854096469193</v>
       </c>
       <c r="H13">
-        <v>3026.389363315576</v>
+        <v>2938.806683024406</v>
       </c>
       <c r="I13">
-        <v>3315.919340195274</v>
+        <v>3234.62344777269</v>
       </c>
       <c r="J13">
-        <v>3494.049227506531</v>
+        <v>3397.569280648891</v>
       </c>
       <c r="K13">
-        <v>3593.085690724656</v>
+        <v>3494.128940374586</v>
       </c>
       <c r="L13">
-        <v>3714.844021485954</v>
+        <v>3621.927456830337</v>
       </c>
       <c r="M13">
-        <v>3797.658062230566</v>
+        <v>3698.80801419508</v>
       </c>
       <c r="N13">
-        <v>3819.254539262622</v>
+        <v>3725.528699375188</v>
       </c>
       <c r="O13">
-        <v>3785.296926065943</v>
+        <v>3709.455978954664</v>
       </c>
       <c r="P13">
-        <v>3700.758154230003</v>
+        <v>3657.184655299127</v>
       </c>
       <c r="Q13">
-        <v>3400.995204279369</v>
+        <v>3381.206331630818</v>
       </c>
       <c r="R13">
-        <v>2850.552704214554</v>
+        <v>2836.690404182893</v>
       </c>
       <c r="S13">
-        <v>2992.61837366797</v>
+        <v>2973.877573519801</v>
       </c>
       <c r="T13">
-        <v>3022.651293909943</v>
+        <v>3007.397995602977</v>
       </c>
       <c r="U13">
-        <v>2997.490734766674</v>
+        <v>2987.398613872349</v>
       </c>
       <c r="V13">
-        <v>3166.429659944893</v>
+        <v>3158.018718204658</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1401,43 +1401,43 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5958815959254794</v>
+        <v>31.83964114520548</v>
       </c>
       <c r="E14">
-        <v>2.104112022465753</v>
+        <v>48.78947191232876</v>
       </c>
       <c r="F14">
-        <v>2.926953712191781</v>
+        <v>161.7349725479452</v>
       </c>
       <c r="G14">
-        <v>4.425110636506849</v>
+        <v>262.2095079452055</v>
       </c>
       <c r="H14">
-        <v>4.843085655471288</v>
+        <v>290.3671646246575</v>
       </c>
       <c r="I14">
-        <v>2.663507764917096</v>
+        <v>223.8726994483493</v>
       </c>
       <c r="J14">
-        <v>7.412338809383561</v>
+        <v>106.8164536098059</v>
       </c>
       <c r="K14">
-        <v>7.598732309895889</v>
+        <v>63.65223247008635</v>
       </c>
       <c r="L14">
-        <v>9.893252019463013</v>
+        <v>44.11650364145429</v>
       </c>
       <c r="M14">
-        <v>13.06283983642254</v>
+        <v>34.25981053309032</v>
       </c>
       <c r="N14">
-        <v>12.43501173733644</v>
+        <v>28.36799308702909</v>
       </c>
       <c r="O14">
-        <v>11.93792164439897</v>
+        <v>24.09330514822734</v>
       </c>
       <c r="P14">
-        <v>11.55997909247839</v>
+        <v>20.77925470361389</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1463,64 +1463,64 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>67.84805769990824</v>
+        <v>90.09937861643834</v>
       </c>
       <c r="D15">
-        <v>183.987801274781</v>
+        <v>262.0253034575343</v>
       </c>
       <c r="E15">
-        <v>248.548746949954</v>
+        <v>474.2879185399574</v>
       </c>
       <c r="F15">
-        <v>326.7231659723117</v>
+        <v>690.3966964326896</v>
       </c>
       <c r="G15">
-        <v>470.4720619274147</v>
+        <v>835.3393346950256</v>
       </c>
       <c r="H15">
-        <v>522.0265341448895</v>
+        <v>928.5095085658904</v>
       </c>
       <c r="I15">
-        <v>540.0124156961381</v>
+        <v>1052.05869007452</v>
       </c>
       <c r="J15">
-        <v>706.4624480979775</v>
+        <v>1169.079868448116</v>
       </c>
       <c r="K15">
-        <v>681.2725625350599</v>
+        <v>1132.108409302648</v>
       </c>
       <c r="L15">
-        <v>778.530597774069</v>
+        <v>1182.066675149315</v>
       </c>
       <c r="M15">
-        <v>848.7837312082115</v>
+        <v>1085.668177712795</v>
       </c>
       <c r="N15">
-        <v>649.1327167956733</v>
+        <v>1050.833805709093</v>
       </c>
       <c r="O15">
-        <v>462.3729414245818</v>
+        <v>970.9447037541777</v>
       </c>
       <c r="P15">
-        <v>359.0915265307978</v>
+        <v>651.3339884739196</v>
       </c>
       <c r="Q15">
-        <v>303.9051664961358</v>
+        <v>474.9255018358002</v>
       </c>
       <c r="R15">
-        <v>231.3497477511121</v>
+        <v>385.5038951426222</v>
       </c>
       <c r="S15">
-        <v>165.1536024512687</v>
+        <v>278.385527840469</v>
       </c>
       <c r="T15">
-        <v>111.622568939051</v>
+        <v>179.0383593582677</v>
       </c>
       <c r="U15">
-        <v>99.36110973088614</v>
+        <v>159.6486569689596</v>
       </c>
       <c r="V15">
-        <v>84.36431281008086</v>
+        <v>124.3858023813816</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1528,64 +1528,64 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>147.3342085387489</v>
+        <v>167.6597250716062</v>
       </c>
       <c r="D16">
-        <v>352.7590476544673</v>
+        <v>422.357420549073</v>
       </c>
       <c r="E16">
-        <v>745.4765557990569</v>
+        <v>822.1286601835616</v>
       </c>
       <c r="F16">
-        <v>1081.211971106102</v>
+        <v>1181.354903005479</v>
       </c>
       <c r="G16">
-        <v>1334.933647075777</v>
+        <v>1559.883401027397</v>
       </c>
       <c r="H16">
-        <v>1498.513371721355</v>
+        <v>1622.621072273973</v>
       </c>
       <c r="I16">
-        <v>1745.715887912673</v>
+        <v>1888.718800112329</v>
       </c>
       <c r="J16">
-        <v>1904.680691118603</v>
+        <v>2131.711876547945</v>
       </c>
       <c r="K16">
-        <v>1842.025174587676</v>
+        <v>1975.403448988975</v>
       </c>
       <c r="L16">
-        <v>1757.668022537221</v>
+        <v>1964.548750410959</v>
       </c>
       <c r="M16">
-        <v>1469.84905277451</v>
+        <v>1896.619688447069</v>
       </c>
       <c r="N16">
-        <v>1432.994020022517</v>
+        <v>1879.219050776986</v>
       </c>
       <c r="O16">
-        <v>1311.308624199557</v>
+        <v>1589.24600658138</v>
       </c>
       <c r="P16">
-        <v>983.3909175680481</v>
+        <v>1191.643222494557</v>
       </c>
       <c r="Q16">
-        <v>681.3192304693677</v>
+        <v>943.7749384862101</v>
       </c>
       <c r="R16">
-        <v>493.9093992686553</v>
+        <v>677.0836227566585</v>
       </c>
       <c r="S16">
-        <v>391.8203554350794</v>
+        <v>472.1967822740919</v>
       </c>
       <c r="T16">
-        <v>349.6957006280853</v>
+        <v>393.3504222393038</v>
       </c>
       <c r="U16">
-        <v>321.336745959703</v>
+        <v>348.7476576090186</v>
       </c>
       <c r="V16">
-        <v>239.9141975626864</v>
+        <v>284.9193118002001</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1593,64 +1593,64 @@
         <v>36</v>
       </c>
       <c r="C17">
-        <v>361.3793668184932</v>
+        <v>415.1821210356164</v>
       </c>
       <c r="D17">
-        <v>917.8306095283878</v>
+        <v>924.05882864726</v>
       </c>
       <c r="E17">
-        <v>1404.035401425021</v>
+        <v>1715.931067044164</v>
       </c>
       <c r="F17">
-        <v>1645.611732360379</v>
+        <v>1970.082215585616</v>
       </c>
       <c r="G17">
-        <v>2040.140478859655</v>
+        <v>2428.487643876712</v>
       </c>
       <c r="H17">
-        <v>2686.823912722626</v>
+        <v>2954.987491251095</v>
       </c>
       <c r="I17">
-        <v>3014.229135832489</v>
+        <v>3194.351126341305</v>
       </c>
       <c r="J17">
-        <v>3532.535351472784</v>
+        <v>3601.536507372466</v>
       </c>
       <c r="K17">
-        <v>3620.704666180472</v>
+        <v>3821.280254008996</v>
       </c>
       <c r="L17">
-        <v>3709.247685717723</v>
+        <v>3780.269117884359</v>
       </c>
       <c r="M17">
-        <v>3581.909196054227</v>
+        <v>4097.221559901455</v>
       </c>
       <c r="N17">
-        <v>3676.026606426467</v>
+        <v>4265.82529680417</v>
       </c>
       <c r="O17">
-        <v>3288.502968063147</v>
+        <v>3593.875679363195</v>
       </c>
       <c r="P17">
-        <v>3107.506473312818</v>
+        <v>3268.927440059091</v>
       </c>
       <c r="Q17">
-        <v>2986.325656222241</v>
+        <v>3086.650498088033</v>
       </c>
       <c r="R17">
-        <v>2054.404533248538</v>
+        <v>2241.019412067015</v>
       </c>
       <c r="S17">
-        <v>1442.763871673623</v>
+        <v>1545.205368555601</v>
       </c>
       <c r="T17">
-        <v>1190.508877877424</v>
+        <v>1228.998055103416</v>
       </c>
       <c r="U17">
-        <v>726.4901496591169</v>
+        <v>777.1644523847575</v>
       </c>
       <c r="V17">
-        <v>700.2719896774823</v>
+        <v>740.0163220296735</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -1658,64 +1658,64 @@
         <v>37</v>
       </c>
       <c r="C18">
-        <v>4046.599703789571</v>
+        <v>4046.603349150685</v>
       </c>
       <c r="D18">
-        <v>5775.738256046517</v>
+        <v>5775.741792032876</v>
       </c>
       <c r="E18">
         <v>8401.4167539726</v>
       </c>
       <c r="F18">
-        <v>9466.607899582859</v>
+        <v>9466.609302720006</v>
       </c>
       <c r="G18">
-        <v>13771.11563856688</v>
+        <v>13771.11521761031</v>
       </c>
       <c r="H18">
-        <v>17311.46817179809</v>
+        <v>17311.46765559988</v>
       </c>
       <c r="I18">
-        <v>19403.82658167012</v>
+        <v>19403.82680998636</v>
       </c>
       <c r="J18">
-        <v>20812.44511907211</v>
+        <v>20812.44553450939</v>
       </c>
       <c r="K18">
-        <v>21766.8771907754</v>
+        <v>21766.87728556098</v>
       </c>
       <c r="L18">
-        <v>22908.56832475576</v>
+        <v>22908.56871906207</v>
       </c>
       <c r="M18">
-        <v>23395.32904236223</v>
+        <v>23395.32934100848</v>
       </c>
       <c r="N18">
-        <v>23575.92374930395</v>
+        <v>23575.92410731408</v>
       </c>
       <c r="O18">
-        <v>23184.40731807991</v>
+        <v>23184.40740631762</v>
       </c>
       <c r="P18">
-        <v>23071.7584574731</v>
+        <v>23071.75879004933</v>
       </c>
       <c r="Q18">
-        <v>20836.44124336314</v>
+        <v>20836.44144257915</v>
       </c>
       <c r="R18">
-        <v>18171.32534501394</v>
+        <v>18171.32496201551</v>
       </c>
       <c r="S18">
-        <v>21234.79023264697</v>
+        <v>21234.79052202661</v>
       </c>
       <c r="T18">
-        <v>21904.13582504964</v>
+        <v>21904.13672320517</v>
       </c>
       <c r="U18">
-        <v>22447.4322959671</v>
+        <v>22447.43250142318</v>
       </c>
       <c r="V18">
-        <v>23087.21686825033</v>
+        <v>23087.21760907212</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -1723,64 +1723,64 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>25917.4008510049</v>
+        <v>27586.7228558771</v>
       </c>
       <c r="D19">
-        <v>54988.33901376791</v>
+        <v>59472.43454819313</v>
       </c>
       <c r="E19">
-        <v>83621.43137467076</v>
+        <v>90771.49242928808</v>
       </c>
       <c r="F19">
-        <v>107952.1536838153</v>
+        <v>117898.2694060646</v>
       </c>
       <c r="G19">
-        <v>133355.484952942</v>
+        <v>145435.5794666175</v>
       </c>
       <c r="H19">
-        <v>153307.0334690608</v>
+        <v>167655.6423724075</v>
       </c>
       <c r="I19">
-        <v>168268.5203934676</v>
+        <v>183275.2696177247</v>
       </c>
       <c r="J19">
-        <v>179038.3398499539</v>
+        <v>196022.3845884603</v>
       </c>
       <c r="K19">
-        <v>184486.6849702533</v>
+        <v>202215.4108019274</v>
       </c>
       <c r="L19">
-        <v>187438.2389070351</v>
+        <v>205053.7550218116</v>
       </c>
       <c r="M19">
-        <v>187475.9736383525</v>
+        <v>205079.1807716149</v>
       </c>
       <c r="N19">
-        <v>183524.9512315434</v>
+        <v>200381.6382729901</v>
       </c>
       <c r="O19">
-        <v>173867.6456626014</v>
+        <v>190578.4726191801</v>
       </c>
       <c r="P19">
-        <v>156572.9812781004</v>
+        <v>170815.0630844336</v>
       </c>
       <c r="Q19">
-        <v>132391.9216769093</v>
+        <v>144038.5371835428</v>
       </c>
       <c r="R19">
-        <v>104911.8648779154</v>
+        <v>113856.0946546309</v>
       </c>
       <c r="S19">
-        <v>85456.66444171933</v>
+        <v>91468.08017487446</v>
       </c>
       <c r="T19">
-        <v>70593.82379139296</v>
+        <v>74703.54889330111</v>
       </c>
       <c r="U19">
-        <v>55614.74854307878</v>
+        <v>58696.59324800907</v>
       </c>
       <c r="V19">
-        <v>49884.95252774676</v>
+        <v>52362.6908067154</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -1851,16 +1851,16 @@
         <v>28</v>
       </c>
       <c r="W20">
-        <v>792503.8134266734</v>
+        <v>805816.3408684882</v>
       </c>
       <c r="X20">
-        <v>510630.9300111922</v>
+        <v>512592.3142855997</v>
       </c>
       <c r="Y20">
-        <v>516294.5144461714</v>
+        <v>522876.036924005</v>
       </c>
       <c r="Z20">
-        <v>2141579.237109476</v>
+        <v>2165450.639163608</v>
       </c>
       <c r="AA20" t="s">
         <v>13</v>
@@ -1871,64 +1871,64 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>465.3336708310789</v>
+        <v>469.8683980242888</v>
       </c>
       <c r="D21">
-        <v>1111.469343773419</v>
+        <v>1126.822949991761</v>
       </c>
       <c r="E21">
-        <v>1780.864717245848</v>
+        <v>1825.906430019164</v>
       </c>
       <c r="F21">
-        <v>2507.664218287881</v>
+        <v>2560.270556155128</v>
       </c>
       <c r="G21">
-        <v>3123.959846356997</v>
+        <v>3182.931234004049</v>
       </c>
       <c r="H21">
-        <v>3638.427599245281</v>
+        <v>3742.382055917277</v>
       </c>
       <c r="I21">
-        <v>4140.480134502001</v>
+        <v>4237.852891712256</v>
       </c>
       <c r="J21">
-        <v>4611.213111400177</v>
+        <v>4656.055080540182</v>
       </c>
       <c r="K21">
-        <v>5037.38113924643</v>
+        <v>5058.455099252166</v>
       </c>
       <c r="L21">
-        <v>5375.794121664192</v>
+        <v>5420.051931003994</v>
       </c>
       <c r="M21">
-        <v>5615.540406464685</v>
+        <v>5642.940291189467</v>
       </c>
       <c r="N21">
-        <v>5753.394756863599</v>
+        <v>5759.868636133749</v>
       </c>
       <c r="O21">
-        <v>5652.095837044789</v>
+        <v>5683.601548863444</v>
       </c>
       <c r="P21">
-        <v>5362.538519183796</v>
+        <v>5385.479638513169</v>
       </c>
       <c r="Q21">
-        <v>4612.955329608744</v>
+        <v>4635.071752060271</v>
       </c>
       <c r="R21">
-        <v>3694.282600511755</v>
+        <v>3748.36838088284</v>
       </c>
       <c r="S21">
-        <v>2861.253837802955</v>
+        <v>2912.192353565313</v>
       </c>
       <c r="T21">
-        <v>2421.186745091801</v>
+        <v>2458.781639883871</v>
       </c>
       <c r="U21">
-        <v>2160.807243264925</v>
+        <v>2154.772377439571</v>
       </c>
       <c r="V21">
-        <v>1640.741035751106</v>
+        <v>1705.543363803165</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -1936,64 +1936,64 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>379.5213177690707</v>
+        <v>364.5528309735481</v>
       </c>
       <c r="D22">
-        <v>972.0745109491174</v>
+        <v>943.1553041416394</v>
       </c>
       <c r="E22">
-        <v>1452.111326277308</v>
+        <v>1387.890810334703</v>
       </c>
       <c r="F22">
-        <v>2148.564123338181</v>
+        <v>2047.819028767235</v>
       </c>
       <c r="G22">
-        <v>2806.750822533036</v>
+        <v>2696.539186819215</v>
       </c>
       <c r="H22">
-        <v>3444.823342345173</v>
+        <v>3324.666739242539</v>
       </c>
       <c r="I22">
-        <v>3943.695660083453</v>
+        <v>3800.194360357152</v>
       </c>
       <c r="J22">
-        <v>4382.60617787887</v>
+        <v>4248.053782955317</v>
       </c>
       <c r="K22">
-        <v>4857.947468070496</v>
+        <v>4718.795067890407</v>
       </c>
       <c r="L22">
-        <v>5266.722714836537</v>
+        <v>5119.371402792997</v>
       </c>
       <c r="M22">
-        <v>5538.038893897784</v>
+        <v>5406.329140301134</v>
       </c>
       <c r="N22">
-        <v>5736.867799820888</v>
+        <v>5627.917082745278</v>
       </c>
       <c r="O22">
-        <v>5891.64670242776</v>
+        <v>5801.906641108406</v>
       </c>
       <c r="P22">
-        <v>5752.151419324646</v>
+        <v>5685.049337153561</v>
       </c>
       <c r="Q22">
-        <v>4719.706799545327</v>
+        <v>4664.912749353361</v>
       </c>
       <c r="R22">
-        <v>3601.384728976089</v>
+        <v>3576.490676378586</v>
       </c>
       <c r="S22">
-        <v>2807.749591209411</v>
+        <v>2788.835998213105</v>
       </c>
       <c r="T22">
-        <v>2618.287304189447</v>
+        <v>2576.165149098682</v>
       </c>
       <c r="U22">
-        <v>2533.319601479017</v>
+        <v>2398.624090012631</v>
       </c>
       <c r="V22">
-        <v>2251.189808283105</v>
+        <v>2246.388189803354</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -2001,64 +2001,64 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>1.619126594630137</v>
+        <v>54.40090789041096</v>
       </c>
       <c r="D23">
-        <v>7.035410964879452</v>
+        <v>167.4435715616439</v>
       </c>
       <c r="E23">
-        <v>14.5577461339911</v>
+        <v>270.9296260273973</v>
       </c>
       <c r="F23">
-        <v>22.01269976865444</v>
+        <v>298.619494369863</v>
       </c>
       <c r="G23">
-        <v>29.20767294147068</v>
+        <v>354.1095430136986</v>
       </c>
       <c r="H23">
-        <v>37.20364061443836</v>
+        <v>429.6535526712328</v>
       </c>
       <c r="I23">
-        <v>45.51244392999452</v>
+        <v>445.0977545205479</v>
       </c>
       <c r="J23">
-        <v>57.42699929704109</v>
+        <v>449.2237287123288</v>
       </c>
       <c r="K23">
-        <v>79.16197388866215</v>
+        <v>456.5249626575343</v>
       </c>
       <c r="L23">
-        <v>99.93730315352417</v>
+        <v>457.7086171374182</v>
       </c>
       <c r="M23">
-        <v>108.7047249477316</v>
+        <v>459.455723875241</v>
       </c>
       <c r="N23">
-        <v>115.1341697697511</v>
+        <v>461.7459174641636</v>
       </c>
       <c r="O23">
-        <v>118.9858170356968</v>
+        <v>465.7577926135882</v>
       </c>
       <c r="P23">
-        <v>119.0388333263829</v>
+        <v>420.9418906447816</v>
       </c>
       <c r="Q23">
-        <v>115.2630723989596</v>
+        <v>391.1369163098607</v>
       </c>
       <c r="R23">
-        <v>109.5702369488174</v>
+        <v>360.0389521416714</v>
       </c>
       <c r="S23">
-        <v>100.8013163814608</v>
+        <v>279.7694658542393</v>
       </c>
       <c r="T23">
-        <v>87.3015293706591</v>
+        <v>223.9370684042996</v>
       </c>
       <c r="U23">
-        <v>72.32901630779608</v>
+        <v>131.0323956968414</v>
       </c>
       <c r="V23">
-        <v>54.18536853311326</v>
+        <v>107.8661176138845</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -2066,64 +2066,64 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>256.607552452911</v>
+        <v>240.4729636465754</v>
       </c>
       <c r="D24">
-        <v>468.8979724062228</v>
+        <v>581.1083345224713</v>
       </c>
       <c r="E24">
-        <v>677.0012908859524</v>
+        <v>961.2024358427053</v>
       </c>
       <c r="F24">
-        <v>856.2879395002321</v>
+        <v>1110.567318363671</v>
       </c>
       <c r="G24">
-        <v>979.7947189698278</v>
+        <v>1311.140853835617</v>
       </c>
       <c r="H24">
-        <v>1161.546512334523</v>
+        <v>1396.035786010959</v>
       </c>
       <c r="I24">
-        <v>1306.438058091641</v>
+        <v>1547.451406956849</v>
       </c>
       <c r="J24">
-        <v>1397.619943438688</v>
+        <v>1644.881594292963</v>
       </c>
       <c r="K24">
-        <v>1482.880170249219</v>
+        <v>1833.177646757081</v>
       </c>
       <c r="L24">
-        <v>1531.488864359273</v>
+        <v>1970.632472801432</v>
       </c>
       <c r="M24">
-        <v>1589.017328840812</v>
+        <v>1969.557327006966</v>
       </c>
       <c r="N24">
-        <v>1791.506013388071</v>
+        <v>1914.22691535465</v>
       </c>
       <c r="O24">
-        <v>1712.31388151068</v>
+        <v>1813.256028679848</v>
       </c>
       <c r="P24">
-        <v>1523.211949937698</v>
+        <v>1666.215980603829</v>
       </c>
       <c r="Q24">
-        <v>1456.893416002912</v>
+        <v>1438.492463244157</v>
       </c>
       <c r="R24">
-        <v>1365.5367208335</v>
+        <v>1307.784713054703</v>
       </c>
       <c r="S24">
-        <v>1166.70165707089</v>
+        <v>1097.964564076905</v>
       </c>
       <c r="T24">
-        <v>836.0850890693391</v>
+        <v>832.1761046145646</v>
       </c>
       <c r="U24">
-        <v>688.8371644624518</v>
+        <v>688.8382002262389</v>
       </c>
       <c r="V24">
-        <v>595.5105273003662</v>
+        <v>595.511691752031</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -2131,64 +2131,64 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>392.7753447226028</v>
+        <v>380.4359251671233</v>
       </c>
       <c r="D25">
-        <v>880.2359778152397</v>
+        <v>880.2341865273972</v>
       </c>
       <c r="E25">
-        <v>1345.460545267124</v>
+        <v>1341.259340646575</v>
       </c>
       <c r="F25">
-        <v>1723.737324343272</v>
+        <v>1769.75153220049</v>
       </c>
       <c r="G25">
-        <v>2273.091939655326</v>
+        <v>2414.510917487209</v>
       </c>
       <c r="H25">
-        <v>2637.278214424872</v>
+        <v>2869.28891221874</v>
       </c>
       <c r="I25">
-        <v>2876.284566505482</v>
+        <v>3376.776479235096</v>
       </c>
       <c r="J25">
-        <v>3123.684066301431</v>
+        <v>3675.529744402493</v>
       </c>
       <c r="K25">
-        <v>3293.079093504996</v>
+        <v>3810.695543343676</v>
       </c>
       <c r="L25">
-        <v>3405.668699130478</v>
+        <v>3804.79528616781</v>
       </c>
       <c r="M25">
-        <v>3634.631865999677</v>
+        <v>3809.433169206604</v>
       </c>
       <c r="N25">
-        <v>3966.533474632542</v>
+        <v>3698.479501165228</v>
       </c>
       <c r="O25">
-        <v>3374.681265522715</v>
+        <v>3576.37946220558</v>
       </c>
       <c r="P25">
-        <v>3027.167940828781</v>
+        <v>3243.791364855787</v>
       </c>
       <c r="Q25">
-        <v>2369.245619257225</v>
+        <v>2677.192436658515</v>
       </c>
       <c r="R25">
-        <v>1862.714094771883</v>
+        <v>2043.437674254305</v>
       </c>
       <c r="S25">
-        <v>1519.236944017036</v>
+        <v>1507.115457315018</v>
       </c>
       <c r="T25">
-        <v>1253.46995365511</v>
+        <v>1239.9869964121</v>
       </c>
       <c r="U25">
-        <v>1015.048088517938</v>
+        <v>1015.046839776206</v>
       </c>
       <c r="V25">
-        <v>799.8111454365405</v>
+        <v>799.8110671016148</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -2196,64 +2196,64 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>596.9847507333625</v>
+        <v>599.0233781369864</v>
       </c>
       <c r="D26">
-        <v>1398.842416574289</v>
+        <v>1398.84373559589</v>
       </c>
       <c r="E26">
-        <v>2481.807715566385</v>
+        <v>2481.806804513699</v>
       </c>
       <c r="F26">
-        <v>3398.746743317486</v>
+        <v>3398.745681323288</v>
       </c>
       <c r="G26">
-        <v>4595.806785713638</v>
+        <v>4595.808244763698</v>
       </c>
       <c r="H26">
-        <v>6061.967722707228</v>
+        <v>5702.685946793259</v>
       </c>
       <c r="I26">
-        <v>7182.493185190132</v>
+        <v>6400.615984326369</v>
       </c>
       <c r="J26">
-        <v>7734.996352580592</v>
+        <v>7023.818716800472</v>
       </c>
       <c r="K26">
-        <v>8123.650160813094</v>
+        <v>7348.891161668196</v>
       </c>
       <c r="L26">
-        <v>8287.517454866202</v>
+        <v>7642.973057631507</v>
       </c>
       <c r="M26">
-        <v>8394.471653277966</v>
+        <v>8195.810500802907</v>
       </c>
       <c r="N26">
-        <v>9077.465217884066</v>
+        <v>8849.664860731908</v>
       </c>
       <c r="O26">
-        <v>8457.782785603367</v>
+        <v>8378.797127620908</v>
       </c>
       <c r="P26">
-        <v>7827.792289641915</v>
+        <v>7834.241502543275</v>
       </c>
       <c r="Q26">
-        <v>7048.682318125475</v>
+        <v>7173.871605738374</v>
       </c>
       <c r="R26">
-        <v>5569.119316586581</v>
+        <v>5991.87331340883</v>
       </c>
       <c r="S26">
-        <v>4355.636978662495</v>
+        <v>4355.639839231395</v>
       </c>
       <c r="T26">
-        <v>2840.608176025856</v>
+        <v>3203.062967192163</v>
       </c>
       <c r="U26">
-        <v>2692.777548649855</v>
+        <v>2781.161757895185</v>
       </c>
       <c r="V26">
-        <v>1339.613898134357</v>
+        <v>1480.896162428995</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -2261,7 +2261,7 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>1746.270960449934</v>
+        <v>1677.120021900822</v>
       </c>
       <c r="D27">
         <v>4569.578978630137</v>
@@ -2276,49 +2276,49 @@
         <v>11420.02570410959</v>
       </c>
       <c r="H27">
-        <v>15280.49533178082</v>
+        <v>15280.49339638356</v>
       </c>
       <c r="I27">
-        <v>17775.3846461105</v>
+        <v>17775.38034996438</v>
       </c>
       <c r="J27">
-        <v>20117.53455631222</v>
+        <v>20117.53037451507</v>
       </c>
       <c r="K27">
-        <v>22580.87475192549</v>
+        <v>22580.87207673425</v>
       </c>
       <c r="L27">
-        <v>24617.03425131505</v>
+        <v>24617.03445717808</v>
       </c>
       <c r="M27">
-        <v>26174.71747219161</v>
+        <v>26174.7182834991</v>
       </c>
       <c r="N27">
-        <v>27331.37278738782</v>
+        <v>27331.36994931365</v>
       </c>
       <c r="O27">
-        <v>28212.35832105568</v>
+        <v>28212.35529911846</v>
       </c>
       <c r="P27">
-        <v>27651.67960088899</v>
+        <v>27651.67685801917</v>
       </c>
       <c r="Q27">
-        <v>21383.68111408081</v>
+        <v>21383.67847280407</v>
       </c>
       <c r="R27">
-        <v>15075.55741910604</v>
+        <v>15075.55390345313</v>
       </c>
       <c r="S27">
-        <v>10956.06077058822</v>
+        <v>10956.06143112851</v>
       </c>
       <c r="T27">
-        <v>8837.690158628222</v>
+        <v>8837.687411299994</v>
       </c>
       <c r="U27">
-        <v>9588.076542589994</v>
+        <v>9588.079355716472</v>
       </c>
       <c r="V27">
-        <v>10035.6164702808</v>
+        <v>10035.61619941378</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -2326,64 +2326,64 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>13960.01012493237</v>
+        <v>14096.05194072866</v>
       </c>
       <c r="D28">
-        <v>33344.08031320257</v>
+        <v>33804.68849975283</v>
       </c>
       <c r="E28">
-        <v>53425.94151737545</v>
+        <v>54777.19290057493</v>
       </c>
       <c r="F28">
-        <v>75229.92654863643</v>
+        <v>76808.11668465383</v>
       </c>
       <c r="G28">
-        <v>93718.7953907099</v>
+        <v>95487.93702012151</v>
       </c>
       <c r="H28">
-        <v>109152.8279773584</v>
+        <v>112271.4616775183</v>
       </c>
       <c r="I28">
-        <v>124214.4040350601</v>
+        <v>127135.5867513677</v>
       </c>
       <c r="J28">
-        <v>138336.3933420053</v>
+        <v>139681.6524162054</v>
       </c>
       <c r="K28">
-        <v>151121.4341773929</v>
+        <v>151753.652977565</v>
       </c>
       <c r="L28">
-        <v>161273.8236499257</v>
+        <v>162601.5579301198</v>
       </c>
       <c r="M28">
-        <v>168466.2121939406</v>
+        <v>169288.208735684</v>
       </c>
       <c r="N28">
-        <v>172601.8427059079</v>
+        <v>172796.0590840125</v>
       </c>
       <c r="O28">
-        <v>169562.8751113437</v>
+        <v>170508.0464659033</v>
       </c>
       <c r="P28">
-        <v>160876.1555755139</v>
+        <v>161564.3891553951</v>
       </c>
       <c r="Q28">
-        <v>138388.6598882623</v>
+        <v>139052.1525618081</v>
       </c>
       <c r="R28">
-        <v>110828.4780153527</v>
+        <v>112451.0514264852</v>
       </c>
       <c r="S28">
-        <v>85837.61513408866</v>
+        <v>87365.7706069594</v>
       </c>
       <c r="T28">
-        <v>72635.60235275402</v>
+        <v>73763.4491965161</v>
       </c>
       <c r="U28">
-        <v>62663.41005468281</v>
+        <v>62488.39894574756</v>
       </c>
       <c r="V28">
-        <v>45940.74900103094</v>
+        <v>47755.21418648861</v>
       </c>
     </row>
   </sheetData>

--- a/data/clean data/summary stats_no_discount.xlsx
+++ b/data/clean data/summary stats_no_discount.xlsx
@@ -585,79 +585,79 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="F2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="H2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="I2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="J2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="K2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="L2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="M2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="N2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="O2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="P2">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="Q2">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="R2">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="S2">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="T2">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="U2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="V2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="W2">
-        <v>1996149.546955048</v>
+        <v>213520.3117934772</v>
       </c>
       <c r="X2">
-        <v>1108631.605949385</v>
+        <v>265657.9330579342</v>
       </c>
       <c r="Y2">
-        <v>1058001.581885078</v>
+        <v>445172.7359349519</v>
       </c>
       <c r="Z2">
-        <v>4862817.499981272</v>
+        <v>1089847.618674591</v>
       </c>
       <c r="AA2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -665,64 +665,64 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>443.4337744319761</v>
+        <v>138.8066928075368</v>
       </c>
       <c r="D3">
-        <v>992.3098196589998</v>
+        <v>197.5156550561906</v>
       </c>
       <c r="E3">
-        <v>1548.390269466627</v>
+        <v>254.9897858800788</v>
       </c>
       <c r="F3">
-        <v>2071.344532879983</v>
+        <v>284.6594714354276</v>
       </c>
       <c r="G3">
-        <v>2563.016132837649</v>
+        <v>323.9155879094405</v>
       </c>
       <c r="H3">
-        <v>2977.947915424741</v>
+        <v>398.3468547797647</v>
       </c>
       <c r="I3">
-        <v>3302.243152862685</v>
+        <v>748.6208965428706</v>
       </c>
       <c r="J3">
-        <v>3571.319542602826</v>
+        <v>1087.109433665833</v>
       </c>
       <c r="K3">
-        <v>3765.628338079706</v>
+        <v>1418.76998086552</v>
       </c>
       <c r="L3">
-        <v>3911.226733531185</v>
+        <v>1880.469897192398</v>
       </c>
       <c r="M3">
-        <v>3982.631803269137</v>
+        <v>1975.82610878839</v>
       </c>
       <c r="N3">
-        <v>3969.9755037979</v>
+        <v>2015.951348849165</v>
       </c>
       <c r="O3">
-        <v>3841.345947713651</v>
+        <v>2045.902839133678</v>
       </c>
       <c r="P3">
-        <v>3535.951619572644</v>
+        <v>1924.557265389833</v>
       </c>
       <c r="Q3">
-        <v>3043.985911240334</v>
+        <v>2135.804978658786</v>
       </c>
       <c r="R3">
-        <v>2433.410172915225</v>
+        <v>2080.98849376584</v>
       </c>
       <c r="S3">
-        <v>1943.846204150368</v>
+        <v>1827.107141510415</v>
       </c>
       <c r="T3">
-        <v>1649.633312109081</v>
+        <v>1667.178769041932</v>
       </c>
       <c r="U3">
-        <v>1392.930944755824</v>
+        <v>1454.417924319503</v>
       </c>
       <c r="V3">
-        <v>1220.950060892732</v>
+        <v>1276.408793030084</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -730,64 +730,64 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>636.788306531413</v>
+        <v>538.5089766672768</v>
       </c>
       <c r="D4">
-        <v>1170.526565033157</v>
+        <v>568.8335159418822</v>
       </c>
       <c r="E4">
-        <v>1625.308215375082</v>
+        <v>726.7958138384136</v>
       </c>
       <c r="F4">
-        <v>2059.637909491068</v>
+        <v>808.1012780666323</v>
       </c>
       <c r="G4">
-        <v>2592.989439652436</v>
+        <v>833.4730461189479</v>
       </c>
       <c r="H4">
-        <v>3094.222919373974</v>
+        <v>829.7749706325875</v>
       </c>
       <c r="I4">
-        <v>3464.923049336555</v>
+        <v>1270.113023236134</v>
       </c>
       <c r="J4">
-        <v>3742.25811932146</v>
+        <v>1622.337630685512</v>
       </c>
       <c r="K4">
-        <v>4000.743106030297</v>
+        <v>1678.135646449448</v>
       </c>
       <c r="L4">
-        <v>4258.82785435523</v>
+        <v>2305.938648515008</v>
       </c>
       <c r="M4">
-        <v>4437.137495445838</v>
+        <v>2517.253982577958</v>
       </c>
       <c r="N4">
-        <v>4560.355587350393</v>
+        <v>2830.87569714047</v>
       </c>
       <c r="O4">
-        <v>4628.836078376211</v>
+        <v>3121.861395872337</v>
       </c>
       <c r="P4">
-        <v>4556.250269731637</v>
+        <v>3091.694433598081</v>
       </c>
       <c r="Q4">
-        <v>3972.748322694359</v>
+        <v>3836.489536799091</v>
       </c>
       <c r="R4">
-        <v>3207.370502694736</v>
+        <v>4002.15814103814</v>
       </c>
       <c r="S4">
-        <v>2977.523708543996</v>
+        <v>3584.845855065544</v>
       </c>
       <c r="T4">
-        <v>2913.638492641259</v>
+        <v>3515.013039376591</v>
       </c>
       <c r="U4">
-        <v>2842.865429237581</v>
+        <v>3384.424791726934</v>
       </c>
       <c r="V4">
-        <v>2886.33867638636</v>
+        <v>3341.913446460892</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -798,43 +798,43 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>31.83964114520548</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>48.78947191232876</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>161.7349725479452</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>262.2095079452055</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>290.3671646246575</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>223.8726994483493</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>106.8164536098059</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>63.65223247008635</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>44.11650364145429</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>34.25981053309032</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>28.36799308702909</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>24.09330514822734</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>20.77925470361389</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -860,64 +860,64 @@
         <v>34</v>
       </c>
       <c r="C6">
-        <v>115.3069648691781</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>285.1942351636879</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>508.023907469863</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>731.664656369863</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>926.9122346657534</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1115.600102865753</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1202.202522364495</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1239.252820002127</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1321.368708196987</v>
+        <v>140.8361186133098</v>
       </c>
       <c r="L6">
-        <v>1349.397344390719</v>
+        <v>428.535930890411</v>
       </c>
       <c r="M6">
-        <v>1288.464124138905</v>
+        <v>548.8077063935663</v>
       </c>
       <c r="N6">
-        <v>1192.094681267089</v>
+        <v>625.8726894730621</v>
       </c>
       <c r="O6">
-        <v>1063.692454771793</v>
+        <v>592.0229724698155</v>
       </c>
       <c r="P6">
-        <v>856.9264819498777</v>
+        <v>591.3711164252038</v>
       </c>
       <c r="Q6">
-        <v>645.2262557804556</v>
+        <v>540.3896507727563</v>
       </c>
       <c r="R6">
-        <v>444.9613283438808</v>
+        <v>378.9544431856401</v>
       </c>
       <c r="S6">
-        <v>349.9806423956519</v>
+        <v>306.2683074128041</v>
       </c>
       <c r="T6">
-        <v>270.8195324604731</v>
+        <v>212.9241700159685</v>
       </c>
       <c r="U6">
-        <v>197.664202642512</v>
+        <v>182.1891432474579</v>
       </c>
       <c r="V6">
-        <v>158.8987405272006</v>
+        <v>163.5116394032821</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -925,64 +925,64 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>236.4043760657534</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>585.2631315189726</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1018.475334969863</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1345.696262765754</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1631.453388394521</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1835.664400491781</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2087.246072523493</v>
+        <v>7.734398904109589</v>
       </c>
       <c r="J7">
-        <v>2334.551683528657</v>
+        <v>341.6122869654794</v>
       </c>
       <c r="K7">
-        <v>2381.597945542349</v>
+        <v>825.4871495925922</v>
       </c>
       <c r="L7">
-        <v>2211.244605012801</v>
+        <v>1340.504632526113</v>
       </c>
       <c r="M7">
-        <v>2250.850531845205</v>
+        <v>1362.584386619471</v>
       </c>
       <c r="N7">
-        <v>2288.653366820429</v>
+        <v>1183.426734682024</v>
       </c>
       <c r="O7">
-        <v>2210.960932354798</v>
+        <v>1110.240641320548</v>
       </c>
       <c r="P7">
-        <v>1852.973824689717</v>
+        <v>1199.76752020548</v>
       </c>
       <c r="Q7">
-        <v>1378.72277545191</v>
+        <v>1201.348720080634</v>
       </c>
       <c r="R7">
-        <v>1217.12303552571</v>
+        <v>1047.506303926941</v>
       </c>
       <c r="S7">
-        <v>882.6100382693076</v>
+        <v>954.5246915068492</v>
       </c>
       <c r="T7">
-        <v>719.9181425489987</v>
+        <v>722.5049094833657</v>
       </c>
       <c r="U7">
-        <v>559.9425273219025</v>
+        <v>661.2372313725139</v>
       </c>
       <c r="V7">
-        <v>523.5232556960223</v>
+        <v>461.0473047260481</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -990,64 +990,64 @@
         <v>36</v>
       </c>
       <c r="C8">
-        <v>535.1413347869864</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1068.103244109589</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2046.965134750685</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2541.240628394589</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>3018.527383034717</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>3321.684536898159</v>
+        <v>163.8262881062455</v>
       </c>
       <c r="I8">
-        <v>3803.058948927397</v>
+        <v>1106.695565519743</v>
       </c>
       <c r="J8">
-        <v>4151.677829750312</v>
+        <v>1812.380559542416</v>
       </c>
       <c r="K8">
-        <v>4546.652047296918</v>
+        <v>1956.17576993129</v>
       </c>
       <c r="L8">
-        <v>5228.367702764446</v>
+        <v>2360.315847352555</v>
       </c>
       <c r="M8">
-        <v>5510.90870739176</v>
+        <v>2432.979841744006</v>
       </c>
       <c r="N8">
-        <v>5042.60428332868</v>
+        <v>2436.340448080951</v>
       </c>
       <c r="O8">
-        <v>4924.58512528099</v>
+        <v>2389.621626000342</v>
       </c>
       <c r="P8">
-        <v>4392.911456909813</v>
+        <v>2216.534192645479</v>
       </c>
       <c r="Q8">
-        <v>3711.451794769056</v>
+        <v>2164.274314381503</v>
       </c>
       <c r="R8">
-        <v>2766.545781213053</v>
+        <v>2023.39875350551</v>
       </c>
       <c r="S8">
-        <v>2126.88919309242</v>
+        <v>1865.323936887663</v>
       </c>
       <c r="T8">
-        <v>1590.165731410582</v>
+        <v>1831.243638740036</v>
       </c>
       <c r="U8">
-        <v>1213.400898629818</v>
+        <v>1549.812607194942</v>
       </c>
       <c r="V8">
-        <v>1036.07365942757</v>
+        <v>1317.159519223791</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1055,64 +1055,64 @@
         <v>37</v>
       </c>
       <c r="C9">
-        <v>4046.603349150685</v>
+        <v>3358.89764109589</v>
       </c>
       <c r="D9">
-        <v>5775.741792032876</v>
+        <v>2355.070832630137</v>
       </c>
       <c r="E9">
-        <v>8401.4167539726</v>
+        <v>3493.313618079453</v>
       </c>
       <c r="F9">
-        <v>9466.609302720006</v>
+        <v>4042.110311679452</v>
       </c>
       <c r="G9">
-        <v>13771.11521761031</v>
+        <v>3914.201879583562</v>
       </c>
       <c r="H9">
-        <v>17311.46765559988</v>
+        <v>3520.239232</v>
       </c>
       <c r="I9">
-        <v>19403.82680998636</v>
+        <v>5899.280513972603</v>
       </c>
       <c r="J9">
-        <v>20812.44553450939</v>
+        <v>7542.795194876712</v>
       </c>
       <c r="K9">
-        <v>22580.87207673425</v>
+        <v>7548.606366655043</v>
       </c>
       <c r="L9">
-        <v>24617.03445717808</v>
+        <v>11982.1446</v>
       </c>
       <c r="M9">
-        <v>26174.7182834991</v>
+        <v>13615.34209090909</v>
       </c>
       <c r="N9">
-        <v>27331.36994931365</v>
+        <v>15812.644925</v>
       </c>
       <c r="O9">
-        <v>28212.35529911846</v>
+        <v>17576.6528</v>
       </c>
       <c r="P9">
-        <v>27651.67685801917</v>
+        <v>19832.09690588235</v>
       </c>
       <c r="Q9">
-        <v>21383.67847280407</v>
+        <v>22239.53294533684</v>
       </c>
       <c r="R9">
-        <v>18171.32496201551</v>
+        <v>23548.36622365759</v>
       </c>
       <c r="S9">
-        <v>21234.79052202661</v>
+        <v>22189.01073025036</v>
       </c>
       <c r="T9">
-        <v>21904.13672320517</v>
+        <v>22687.6732636009</v>
       </c>
       <c r="U9">
-        <v>22447.43250142318</v>
+        <v>22165.33971756415</v>
       </c>
       <c r="V9">
-        <v>23087.21760907212</v>
+        <v>21237.03172304109</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1120,64 +1120,64 @@
         <v>38</v>
       </c>
       <c r="C10">
-        <v>41682.77479660577</v>
+        <v>6107.49448353162</v>
       </c>
       <c r="D10">
-        <v>93277.12304794596</v>
+        <v>8690.688822472388</v>
       </c>
       <c r="E10">
-        <v>145548.685329863</v>
+        <v>11219.55057872347</v>
       </c>
       <c r="F10">
-        <v>194706.3860907184</v>
+        <v>12525.01674315882</v>
       </c>
       <c r="G10">
-        <v>240923.516486739</v>
+        <v>14252.28586801538</v>
       </c>
       <c r="H10">
-        <v>279927.1040499258</v>
+        <v>17527.26161030964</v>
       </c>
       <c r="I10">
-        <v>310410.8563690924</v>
+        <v>32939.31944788631</v>
       </c>
       <c r="J10">
-        <v>335704.0370046658</v>
+        <v>47832.81508129665</v>
       </c>
       <c r="K10">
-        <v>353969.0637794923</v>
+        <v>62425.87915808287</v>
       </c>
       <c r="L10">
-        <v>367655.3129519314</v>
+        <v>82740.67547646551</v>
       </c>
       <c r="M10">
-        <v>374367.3895072989</v>
+        <v>86936.34878668911</v>
       </c>
       <c r="N10">
-        <v>373177.6973570025</v>
+        <v>88701.85934936324</v>
       </c>
       <c r="O10">
-        <v>361086.5190850834</v>
+        <v>90019.72492188183</v>
       </c>
       <c r="P10">
-        <v>332379.4522398287</v>
+        <v>82755.9624117628</v>
       </c>
       <c r="Q10">
-        <v>283090.6897453509</v>
+        <v>91839.61408232781</v>
       </c>
       <c r="R10">
-        <v>226307.146081116</v>
+        <v>89482.50523193114</v>
       </c>
       <c r="S10">
-        <v>178833.8507818339</v>
+        <v>78565.60708494783</v>
       </c>
       <c r="T10">
-        <v>148466.9980898173</v>
+        <v>71688.68706880309</v>
       </c>
       <c r="U10">
-        <v>121184.9921937567</v>
+        <v>62539.97074573863</v>
       </c>
       <c r="V10">
-        <v>100117.904993204</v>
+        <v>51056.35172120339</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1188,76 +1188,76 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="G11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="J11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="L11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="N11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="O11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="P11">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q11">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="R11">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="S11">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="T11">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="U11">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="V11">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="W11">
-        <v>1190333.20608656</v>
+        <v>196135.0064113483</v>
       </c>
       <c r="X11">
-        <v>596039.2916637851</v>
+        <v>165693.7613149249</v>
       </c>
       <c r="Y11">
-        <v>535125.5449610737</v>
+        <v>210897.6696460982</v>
       </c>
       <c r="Z11">
-        <v>2697366.860817665</v>
+        <v>672843.7711902444</v>
       </c>
       <c r="AA11" t="s">
         <v>12</v>
@@ -1268,64 +1268,64 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>431.0425446230796</v>
+        <v>185.0755904100491</v>
       </c>
       <c r="D12">
-        <v>929.2567898155177</v>
+        <v>263.3542067415875</v>
       </c>
       <c r="E12">
-        <v>1418.304569207626</v>
+        <v>339.9863811734385</v>
       </c>
       <c r="F12">
-        <v>1842.160459469761</v>
+        <v>376.3829731218736</v>
       </c>
       <c r="G12">
-        <v>2272.430929165898</v>
+        <v>419.6572272167385</v>
       </c>
       <c r="H12">
-        <v>2619.619412068867</v>
+        <v>531.1291397063528</v>
       </c>
       <c r="I12">
-        <v>2863.676087776948</v>
+        <v>968.0095316928602</v>
       </c>
       <c r="J12">
-        <v>3062.849759194693</v>
+        <v>1314.272817009321</v>
       </c>
       <c r="K12">
-        <v>3159.615793780115</v>
+        <v>1545.617175695907</v>
       </c>
       <c r="L12">
-        <v>3203.964922215808</v>
+        <v>1650.427606085088</v>
       </c>
       <c r="M12">
-        <v>3204.362199556484</v>
+        <v>1690.338691736322</v>
       </c>
       <c r="N12">
-        <v>3130.96309801547</v>
+        <v>1674.34250583425</v>
       </c>
       <c r="O12">
-        <v>2977.788634674689</v>
+        <v>1656.34187257867</v>
       </c>
       <c r="P12">
-        <v>2668.985360694277</v>
+        <v>1426.663213033286</v>
       </c>
       <c r="Q12">
-        <v>2286.325987040362</v>
+        <v>1641.35379798291</v>
       </c>
       <c r="R12">
-        <v>1807.239597692553</v>
+        <v>1512.833625327325</v>
       </c>
       <c r="S12">
-        <v>1475.291615723782</v>
+        <v>1225.379273156407</v>
       </c>
       <c r="T12">
-        <v>1245.059148221685</v>
+        <v>975.0005459982282</v>
       </c>
       <c r="U12">
-        <v>1012.01022841395</v>
+        <v>753.861906633636</v>
       </c>
       <c r="V12">
-        <v>969.6794593836186</v>
+        <v>531.9978232740006</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1333,64 +1333,64 @@
         <v>32</v>
       </c>
       <c r="C13">
-        <v>732.7550172801871</v>
+        <v>617.1270491923842</v>
       </c>
       <c r="D13">
-        <v>1265.088890062892</v>
+        <v>645.6923390755776</v>
       </c>
       <c r="E13">
-        <v>1720.173591680686</v>
+        <v>824.6279287057222</v>
       </c>
       <c r="F13">
-        <v>2040.734662747424</v>
+        <v>917.8736142864377</v>
       </c>
       <c r="G13">
-        <v>2511.854096469193</v>
+        <v>943.9456618928172</v>
       </c>
       <c r="H13">
-        <v>2938.806683024406</v>
+        <v>923.297922802995</v>
       </c>
       <c r="I13">
-        <v>3234.62344777269</v>
+        <v>1393.216513199905</v>
       </c>
       <c r="J13">
-        <v>3397.569280648891</v>
+        <v>1772.294779781502</v>
       </c>
       <c r="K13">
-        <v>3494.128940374586</v>
+        <v>1795.746226036198</v>
       </c>
       <c r="L13">
-        <v>3621.927456830337</v>
+        <v>1823.030795779841</v>
       </c>
       <c r="M13">
-        <v>3698.80801419508</v>
+        <v>1894.091886108581</v>
       </c>
       <c r="N13">
-        <v>3725.528699375188</v>
+        <v>2016.483148374586</v>
       </c>
       <c r="O13">
-        <v>3709.455978954664</v>
+        <v>2173.180141418012</v>
       </c>
       <c r="P13">
-        <v>3657.184655299127</v>
+        <v>1330.61045336249</v>
       </c>
       <c r="Q13">
-        <v>3381.206331630818</v>
+        <v>2491.679706931595</v>
       </c>
       <c r="R13">
-        <v>2836.690404182893</v>
+        <v>2445.957411150199</v>
       </c>
       <c r="S13">
-        <v>2973.877573519801</v>
+        <v>1822.812126317845</v>
       </c>
       <c r="T13">
-        <v>3007.397995602977</v>
+        <v>1247.303500589776</v>
       </c>
       <c r="U13">
-        <v>2987.398613872349</v>
+        <v>870.392875033799</v>
       </c>
       <c r="V13">
-        <v>3158.018718204658</v>
+        <v>585.411731580709</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1401,61 +1401,61 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>31.83964114520548</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>48.78947191232876</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>161.7349725479452</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>262.2095079452055</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>290.3671646246575</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>223.8726994483493</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>106.8164536098059</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>63.65223247008635</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>44.11650364145429</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>34.25981053309032</v>
+        <v>92.00626305232875</v>
       </c>
       <c r="N14">
-        <v>28.36799308702909</v>
+        <v>34.27977868367809</v>
       </c>
       <c r="O14">
-        <v>24.09330514822734</v>
+        <v>27.15963701322996</v>
       </c>
       <c r="P14">
-        <v>20.77925470361389</v>
+        <v>141.8785106849315</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>111.4348721461187</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>71.94589680365296</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>6.624035507798138</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>4.504374025880022</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>4.238725412448</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>4.842631785280133</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1463,64 +1463,64 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>90.09937861643834</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>262.0253034575343</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>474.2879185399574</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>690.3966964326896</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>835.3393346950256</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>928.5095085658904</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1052.05869007452</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1169.079868448116</v>
+        <v>94.89655426765016</v>
       </c>
       <c r="K15">
-        <v>1132.108409302648</v>
+        <v>311.3480465753424</v>
       </c>
       <c r="L15">
-        <v>1182.066675149315</v>
+        <v>485.0134453384175</v>
       </c>
       <c r="M15">
-        <v>1085.668177712795</v>
+        <v>557.5484699087242</v>
       </c>
       <c r="N15">
-        <v>1050.833805709093</v>
+        <v>631.3513701897822</v>
       </c>
       <c r="O15">
-        <v>970.9447037541777</v>
+        <v>622.0599436047455</v>
       </c>
       <c r="P15">
-        <v>651.3339884739196</v>
+        <v>631.810082322191</v>
       </c>
       <c r="Q15">
-        <v>474.9255018358002</v>
+        <v>515.4198374317093</v>
       </c>
       <c r="R15">
-        <v>385.5038951426222</v>
+        <v>358.1089659421082</v>
       </c>
       <c r="S15">
-        <v>278.385527840469</v>
+        <v>227.4760365472615</v>
       </c>
       <c r="T15">
-        <v>179.0383593582677</v>
+        <v>184.6737875634637</v>
       </c>
       <c r="U15">
-        <v>159.6486569689596</v>
+        <v>153.5818373777973</v>
       </c>
       <c r="V15">
-        <v>124.3858023813816</v>
+        <v>135.8561012799293</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1528,64 +1528,64 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>167.6597250716062</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>422.357420549073</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>822.1286601835616</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1181.354903005479</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1559.883401027397</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1622.621072273973</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1888.718800112329</v>
+        <v>274.1713331306125</v>
       </c>
       <c r="J16">
-        <v>2131.711876547945</v>
+        <v>575.1304930118722</v>
       </c>
       <c r="K16">
-        <v>1975.403448988975</v>
+        <v>826.0990852693395</v>
       </c>
       <c r="L16">
-        <v>1964.548750410959</v>
+        <v>952.2746641491623</v>
       </c>
       <c r="M16">
-        <v>1896.619688447069</v>
+        <v>1161.495485490691</v>
       </c>
       <c r="N16">
-        <v>1879.219050776986</v>
+        <v>1155.823874246575</v>
       </c>
       <c r="O16">
-        <v>1589.24600658138</v>
+        <v>1036.66813324137</v>
       </c>
       <c r="P16">
-        <v>1191.643222494557</v>
+        <v>1051.082609673618</v>
       </c>
       <c r="Q16">
-        <v>943.7749384862101</v>
+        <v>1025.862271728716</v>
       </c>
       <c r="R16">
-        <v>677.0836227566585</v>
+        <v>920.9509931225327</v>
       </c>
       <c r="S16">
-        <v>472.1967822740919</v>
+        <v>832.8435458305944</v>
       </c>
       <c r="T16">
-        <v>393.3504222393038</v>
+        <v>657.3793223121004</v>
       </c>
       <c r="U16">
-        <v>348.7476576090186</v>
+        <v>532.2973814424953</v>
       </c>
       <c r="V16">
-        <v>284.9193118002001</v>
+        <v>311.9241408529652</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1593,64 +1593,64 @@
         <v>36</v>
       </c>
       <c r="C17">
-        <v>415.1821210356164</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>924.05882864726</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1715.931067044164</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1970.082215585616</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>2428.487643876712</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2954.987491251095</v>
+        <v>819.6943721852809</v>
       </c>
       <c r="I17">
-        <v>3194.351126341305</v>
+        <v>1848.877262465753</v>
       </c>
       <c r="J17">
-        <v>3601.536507372466</v>
+        <v>1942.232955859969</v>
       </c>
       <c r="K17">
-        <v>3821.280254008996</v>
+        <v>1955.739124931507</v>
       </c>
       <c r="L17">
-        <v>3780.269117884359</v>
+        <v>1722.377116550751</v>
       </c>
       <c r="M17">
-        <v>4097.221559901455</v>
+        <v>1580.489654794521</v>
       </c>
       <c r="N17">
-        <v>4265.82529680417</v>
+        <v>1659.318400273972</v>
       </c>
       <c r="O17">
-        <v>3593.875679363195</v>
+        <v>1688.925211253951</v>
       </c>
       <c r="P17">
-        <v>3268.927440059091</v>
+        <v>1849.547244717744</v>
       </c>
       <c r="Q17">
-        <v>3086.650498088033</v>
+        <v>1631.969195152792</v>
       </c>
       <c r="R17">
-        <v>2241.019412067015</v>
+        <v>1686.612751811512</v>
       </c>
       <c r="S17">
-        <v>1545.205368555601</v>
+        <v>1666.731592778577</v>
       </c>
       <c r="T17">
-        <v>1228.998055103416</v>
+        <v>1491.862207599123</v>
       </c>
       <c r="U17">
-        <v>777.1644523847575</v>
+        <v>1057.556648484985</v>
       </c>
       <c r="V17">
-        <v>740.0163220296735</v>
+        <v>624.1208365436057</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -1658,64 +1658,64 @@
         <v>37</v>
       </c>
       <c r="C18">
-        <v>4046.603349150685</v>
+        <v>3358.89764109589</v>
       </c>
       <c r="D18">
-        <v>5775.741792032876</v>
+        <v>2355.070832630137</v>
       </c>
       <c r="E18">
-        <v>8401.4167539726</v>
+        <v>3493.313618079453</v>
       </c>
       <c r="F18">
-        <v>9466.609302720006</v>
+        <v>4042.110311679452</v>
       </c>
       <c r="G18">
-        <v>13771.11521761031</v>
+        <v>3914.201879583562</v>
       </c>
       <c r="H18">
-        <v>17311.46765559988</v>
+        <v>3520.239232</v>
       </c>
       <c r="I18">
-        <v>19403.82680998636</v>
+        <v>5899.280513972603</v>
       </c>
       <c r="J18">
-        <v>20812.44553450939</v>
+        <v>7542.795194876712</v>
       </c>
       <c r="K18">
-        <v>21766.87728556098</v>
+        <v>7548.606366655043</v>
       </c>
       <c r="L18">
-        <v>22908.56871906207</v>
+        <v>7537.115322484434</v>
       </c>
       <c r="M18">
-        <v>23395.32934100848</v>
+        <v>8587.658381665755</v>
       </c>
       <c r="N18">
-        <v>23575.92410731408</v>
+        <v>9866.877061643836</v>
       </c>
       <c r="O18">
-        <v>23184.40740631762</v>
+        <v>11422.83672109589</v>
       </c>
       <c r="P18">
-        <v>23071.75879004933</v>
+        <v>6110.501380609914</v>
       </c>
       <c r="Q18">
-        <v>20836.44144257915</v>
+        <v>13746.5464109589</v>
       </c>
       <c r="R18">
-        <v>18171.32496201551</v>
+        <v>13733.85190438356</v>
       </c>
       <c r="S18">
-        <v>21234.79052202661</v>
+        <v>10019.14600657534</v>
       </c>
       <c r="T18">
-        <v>21904.13672320517</v>
+        <v>6478.782719408428</v>
       </c>
       <c r="U18">
-        <v>22447.43250142318</v>
+        <v>4123.749159607568</v>
       </c>
       <c r="V18">
-        <v>23087.21760907212</v>
+        <v>1984.59985127783</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -1723,64 +1723,64 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>27586.7228558771</v>
+        <v>6107.494483531619</v>
       </c>
       <c r="D19">
-        <v>59472.43454819313</v>
+        <v>8690.688822472388</v>
       </c>
       <c r="E19">
-        <v>90771.49242928808</v>
+        <v>11219.55057872347</v>
       </c>
       <c r="F19">
-        <v>117898.2694060646</v>
+        <v>12420.63811302183</v>
       </c>
       <c r="G19">
-        <v>145435.5794666175</v>
+        <v>13848.68849815237</v>
       </c>
       <c r="H19">
-        <v>167655.6423724075</v>
+        <v>17527.26161030965</v>
       </c>
       <c r="I19">
-        <v>183275.2696177247</v>
+        <v>31944.31454586438</v>
       </c>
       <c r="J19">
-        <v>196022.3845884603</v>
+        <v>43371.0029613076</v>
       </c>
       <c r="K19">
-        <v>202215.4108019274</v>
+        <v>51005.36679796493</v>
       </c>
       <c r="L19">
-        <v>205053.7550218116</v>
+        <v>54464.1110008079</v>
       </c>
       <c r="M19">
-        <v>205079.1807716149</v>
+        <v>55781.17682729861</v>
       </c>
       <c r="N19">
-        <v>200381.6382729901</v>
+        <v>55253.30269253023</v>
       </c>
       <c r="O19">
-        <v>190578.4726191801</v>
+        <v>54659.2817950961</v>
       </c>
       <c r="P19">
-        <v>170815.0630844336</v>
+        <v>45653.22281706516</v>
       </c>
       <c r="Q19">
-        <v>144038.5371835428</v>
+        <v>52523.32153545311</v>
       </c>
       <c r="R19">
-        <v>113856.0946546309</v>
+        <v>48410.67601047441</v>
       </c>
       <c r="S19">
-        <v>91468.08017487446</v>
+        <v>39212.13674100502</v>
       </c>
       <c r="T19">
-        <v>74703.54889330111</v>
+        <v>31200.0174719433</v>
       </c>
       <c r="U19">
-        <v>58696.59324800907</v>
+        <v>24123.58101227635</v>
       </c>
       <c r="V19">
-        <v>52362.6908067154</v>
+        <v>15427.93687494602</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -1791,79 +1791,79 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="N20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="O20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="R20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="S20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="T20">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="U20">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="V20">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="W20">
-        <v>805816.3408684882</v>
+        <v>17385.3053821289</v>
       </c>
       <c r="X20">
-        <v>512592.3142855997</v>
+        <v>99964.17174300924</v>
       </c>
       <c r="Y20">
-        <v>522876.036924005</v>
+        <v>234275.0662888536</v>
       </c>
       <c r="Z20">
-        <v>2165450.639163608</v>
+        <v>417003.847484347</v>
       </c>
       <c r="AA20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -1871,64 +1871,64 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>469.8683980242888</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1126.822949991761</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1825.906430019164</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>2560.270556155128</v>
+        <v>9.488966376089666</v>
       </c>
       <c r="G21">
-        <v>3182.931234004049</v>
+        <v>36.6906699875467</v>
       </c>
       <c r="H21">
-        <v>3742.382055917277</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4237.852891712256</v>
+        <v>90.45499109290164</v>
       </c>
       <c r="J21">
-        <v>4656.055080540182</v>
+        <v>405.6192836353674</v>
       </c>
       <c r="K21">
-        <v>5058.455099252166</v>
+        <v>1038.228396374358</v>
       </c>
       <c r="L21">
-        <v>5420.051931003994</v>
+        <v>2570.596770514329</v>
       </c>
       <c r="M21">
-        <v>5642.940291189467</v>
+        <v>2832.28835994459</v>
       </c>
       <c r="N21">
-        <v>5759.868636133749</v>
+        <v>3040.77787789391</v>
       </c>
       <c r="O21">
-        <v>5683.601548863444</v>
+        <v>3214.585738798703</v>
       </c>
       <c r="P21">
-        <v>5385.479638513169</v>
+        <v>3372.976326790694</v>
       </c>
       <c r="Q21">
-        <v>4635.071752060271</v>
+        <v>3574.208413352244</v>
       </c>
       <c r="R21">
-        <v>3748.36838088284</v>
+        <v>3733.802656496066</v>
       </c>
       <c r="S21">
-        <v>2912.192353565313</v>
+        <v>3577.588213085708</v>
       </c>
       <c r="T21">
-        <v>2458.781639883871</v>
+        <v>3680.788145169073</v>
       </c>
       <c r="U21">
-        <v>2154.772377439571</v>
+        <v>3492.399066678389</v>
       </c>
       <c r="V21">
-        <v>1705.543363803165</v>
+        <v>3238.946804205214</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -1936,64 +1936,64 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>364.5528309735481</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>943.1553041416394</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1387.890810334703</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>2047.819028767235</v>
+        <v>31.47134111778782</v>
       </c>
       <c r="G22">
-        <v>2696.539186819215</v>
+        <v>121.6891856554462</v>
       </c>
       <c r="H22">
-        <v>3324.666739242539</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3800.194360357152</v>
+        <v>300.0052658700944</v>
       </c>
       <c r="J22">
-        <v>4248.053782955317</v>
+        <v>764.8901721560883</v>
       </c>
       <c r="K22">
-        <v>4718.795067890407</v>
+        <v>1256.166213615242</v>
       </c>
       <c r="L22">
-        <v>5119.371402792997</v>
+        <v>3395.742805235076</v>
       </c>
       <c r="M22">
-        <v>5406.329140301134</v>
+        <v>3832.90115180308</v>
       </c>
       <c r="N22">
-        <v>5627.917082745278</v>
+        <v>4461.763905946335</v>
       </c>
       <c r="O22">
-        <v>5801.906641108406</v>
+        <v>4979.156499863862</v>
       </c>
       <c r="P22">
-        <v>5685.049337153561</v>
+        <v>5617.508621150359</v>
       </c>
       <c r="Q22">
-        <v>4664.912749353361</v>
+        <v>6286.003579843906</v>
       </c>
       <c r="R22">
-        <v>3576.490676378586</v>
+        <v>6684.923738294864</v>
       </c>
       <c r="S22">
-        <v>2788.835998213105</v>
+        <v>6256.617271544521</v>
       </c>
       <c r="T22">
-        <v>2576.165149098682</v>
+        <v>6409.072953547152</v>
       </c>
       <c r="U22">
-        <v>2398.624090012631</v>
+        <v>6294.480556199432</v>
       </c>
       <c r="V22">
-        <v>2246.388189803354</v>
+        <v>6062.45699222107</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -2001,64 +2001,64 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>54.40090789041096</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>167.4435715616439</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>270.9296260273973</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>298.619494369863</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>354.1095430136986</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>429.6535526712328</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>445.0977545205479</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>449.2237287123288</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>456.5249626575343</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>457.7086171374182</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>459.455723875241</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>461.7459174641636</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>465.7577926135882</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>420.9418906447816</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>391.1369163098607</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>360.0389521416714</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>279.7694658542393</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>223.9370684042996</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>131.0323956968414</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>107.8661176138845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -2066,64 +2066,64 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>240.4729636465754</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>581.1083345224713</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>961.2024358427053</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1110.567318363671</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1311.140853835617</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1396.035786010959</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1547.451406956849</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1644.881594292963</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1833.177646757081</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1970.632472801432</v>
+        <v>183.4258906849315</v>
       </c>
       <c r="M24">
-        <v>1969.557327006966</v>
+        <v>437.5566982191781</v>
       </c>
       <c r="N24">
-        <v>1914.22691535465</v>
+        <v>482.1708336986301</v>
       </c>
       <c r="O24">
-        <v>1813.256028679848</v>
+        <v>492.9551582191781</v>
       </c>
       <c r="P24">
-        <v>1666.215980603829</v>
+        <v>749.3254981709933</v>
       </c>
       <c r="Q24">
-        <v>1438.492463244157</v>
+        <v>1235.885881588805</v>
       </c>
       <c r="R24">
-        <v>1307.784713054703</v>
+        <v>1083.088541283767</v>
       </c>
       <c r="S24">
-        <v>1097.964564076905</v>
+        <v>1072.475985778391</v>
       </c>
       <c r="T24">
-        <v>832.1761046145646</v>
+        <v>1019.179448263947</v>
       </c>
       <c r="U24">
-        <v>688.8382002262389</v>
+        <v>964.3986569191716</v>
       </c>
       <c r="V24">
-        <v>595.511691752031</v>
+        <v>805.7777200877561</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -2131,64 +2131,64 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>380.4359251671233</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>880.2341865273972</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1341.259340646575</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1769.75153220049</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>2414.510917487209</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2869.28891221874</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3376.776479235096</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>3675.529744402493</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>3810.695543343676</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>3804.79528616781</v>
+        <v>2358.36608</v>
       </c>
       <c r="M25">
-        <v>3809.433169206604</v>
+        <v>2367.867083724631</v>
       </c>
       <c r="N25">
-        <v>3698.479501165228</v>
+        <v>2415.858128034876</v>
       </c>
       <c r="O25">
-        <v>3576.37946220558</v>
+        <v>2190.85889118356</v>
       </c>
       <c r="P25">
-        <v>3243.791364855787</v>
+        <v>1823.905680979855</v>
       </c>
       <c r="Q25">
-        <v>2677.192436658515</v>
+        <v>2194.042115926566</v>
       </c>
       <c r="R25">
-        <v>2043.437674254305</v>
+        <v>2161.771097934468</v>
       </c>
       <c r="S25">
-        <v>1507.115457315018</v>
+        <v>1940.054844323348</v>
       </c>
       <c r="T25">
-        <v>1239.9869964121</v>
+        <v>2031.343213356025</v>
       </c>
       <c r="U25">
-        <v>1015.046839776206</v>
+        <v>1782.89421743332</v>
       </c>
       <c r="V25">
-        <v>799.8110671016148</v>
+        <v>1370.566172312347</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -2196,64 +2196,64 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>599.0233781369864</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1398.84373559589</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>2481.806804513699</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>3398.745681323288</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>4595.808244763698</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>5702.685946793259</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>6400.615984326369</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>7023.818716800472</v>
+        <v>333.9195616438357</v>
       </c>
       <c r="K26">
-        <v>7348.891161668196</v>
+        <v>1989.850302706849</v>
       </c>
       <c r="L26">
-        <v>7642.973057631507</v>
+        <v>2931.356618383976</v>
       </c>
       <c r="M26">
-        <v>8195.810500802907</v>
+        <v>2985.609058586603</v>
       </c>
       <c r="N26">
-        <v>8849.664860731908</v>
+        <v>2840.034286260712</v>
       </c>
       <c r="O26">
-        <v>8378.797127620908</v>
+        <v>2815.954468219178</v>
       </c>
       <c r="P26">
-        <v>7834.241502543275</v>
+        <v>2941.882900989698</v>
       </c>
       <c r="Q26">
-        <v>7173.871605738374</v>
+        <v>2508.082881158193</v>
       </c>
       <c r="R26">
-        <v>5991.87331340883</v>
+        <v>3025.123254115083</v>
       </c>
       <c r="S26">
-        <v>4355.639839231395</v>
+        <v>2656.302298756124</v>
       </c>
       <c r="T26">
-        <v>3203.062967192163</v>
+        <v>2961.364359573641</v>
       </c>
       <c r="U26">
-        <v>2781.161757895185</v>
+        <v>2689.177052863026</v>
       </c>
       <c r="V26">
-        <v>1480.896162428995</v>
+        <v>2416.569164881149</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -2261,64 +2261,64 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>1677.120021900822</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>4569.578978630137</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>5939.279255342466</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>7906.470309041097</v>
+        <v>104.3786301369863</v>
       </c>
       <c r="G27">
-        <v>11420.02570410959</v>
+        <v>403.5973698630137</v>
       </c>
       <c r="H27">
-        <v>15280.49339638356</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>17775.38034996438</v>
+        <v>995.0049020219179</v>
       </c>
       <c r="J27">
-        <v>20117.53037451507</v>
+        <v>1989.836231769863</v>
       </c>
       <c r="K27">
-        <v>22580.87207673425</v>
+        <v>3302.945632876712</v>
       </c>
       <c r="L27">
-        <v>24617.03445717808</v>
+        <v>11982.1446</v>
       </c>
       <c r="M27">
-        <v>26174.7182834991</v>
+        <v>13615.34209090909</v>
       </c>
       <c r="N27">
-        <v>27331.36994931365</v>
+        <v>15812.644925</v>
       </c>
       <c r="O27">
-        <v>28212.35529911846</v>
+        <v>17576.6528</v>
       </c>
       <c r="P27">
-        <v>27651.67685801917</v>
+        <v>19832.09690588235</v>
       </c>
       <c r="Q27">
-        <v>21383.67847280407</v>
+        <v>22239.53294533684</v>
       </c>
       <c r="R27">
-        <v>15075.55390345313</v>
+        <v>23548.36622365759</v>
       </c>
       <c r="S27">
-        <v>10956.06143112851</v>
+        <v>22189.01073025036</v>
       </c>
       <c r="T27">
-        <v>8837.687411299994</v>
+        <v>22687.6732636009</v>
       </c>
       <c r="U27">
-        <v>9588.079355716472</v>
+        <v>22165.33971756415</v>
       </c>
       <c r="V27">
-        <v>10035.61619941378</v>
+        <v>21237.03172304109</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -2326,64 +2326,64 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>14096.05194072866</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>33804.68849975283</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>54777.19290057493</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>76808.11668465383</v>
+        <v>104.3786301369863</v>
       </c>
       <c r="G28">
-        <v>95487.93702012151</v>
+        <v>403.5973698630137</v>
       </c>
       <c r="H28">
-        <v>112271.4616775183</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>127135.5867513677</v>
+        <v>995.0049020219179</v>
       </c>
       <c r="J28">
-        <v>139681.6524162054</v>
+        <v>4461.812119989041</v>
       </c>
       <c r="K28">
-        <v>151753.652977565</v>
+        <v>11420.51236011794</v>
       </c>
       <c r="L28">
-        <v>162601.5579301198</v>
+        <v>28276.56447565762</v>
       </c>
       <c r="M28">
-        <v>169288.208735684</v>
+        <v>31155.17195939049</v>
       </c>
       <c r="N28">
-        <v>172796.0590840125</v>
+        <v>33448.55665683301</v>
       </c>
       <c r="O28">
-        <v>170508.0464659033</v>
+        <v>35360.44312678573</v>
       </c>
       <c r="P28">
-        <v>161564.3891553951</v>
+        <v>37102.73959469763</v>
       </c>
       <c r="Q28">
-        <v>139052.1525618081</v>
+        <v>39316.29254687469</v>
       </c>
       <c r="R28">
-        <v>112451.0514264852</v>
+        <v>41071.82922145672</v>
       </c>
       <c r="S28">
-        <v>87365.7706069594</v>
+        <v>39353.47034394279</v>
       </c>
       <c r="T28">
-        <v>73763.4491965161</v>
+        <v>40488.66959685979</v>
       </c>
       <c r="U28">
-        <v>62488.39894574756</v>
+        <v>38416.38973346227</v>
       </c>
       <c r="V28">
-        <v>47755.21418648861</v>
+        <v>35628.41484625736</v>
       </c>
     </row>
   </sheetData>
